--- a/Модели Excel/New Logic.xlsx
+++ b/Модели Excel/New Logic.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TMP\KTH\!Work2\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\magistr\Модели Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -71,7 +71,7 @@
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -158,7 +158,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="[&gt;0.5]0;[=0]\-;\^"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -393,7 +393,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -407,6 +407,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -542,12 +543,15 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FF01-401F-B558-11AE5E462DEC}"/>
+            </c:ext>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:filteredCategoryTitle>
                 <c15:cat>
                   <c:multiLvlStrRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!#REF!</c15:sqref>
@@ -557,9 +561,6 @@
                   </c:multiLvlStrRef>
                 </c15:cat>
               </c15:filteredCategoryTitle>
-            </c:ext>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FF01-401F-B558-11AE5E462DEC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -753,12 +754,15 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FF01-401F-B558-11AE5E462DEC}"/>
+            </c:ext>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:filteredCategoryTitle>
                 <c15:cat>
                   <c:multiLvlStrRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!#REF!</c15:sqref>
@@ -768,9 +772,6 @@
                   </c:multiLvlStrRef>
                 </c15:cat>
               </c15:filteredCategoryTitle>
-            </c:ext>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FF01-401F-B558-11AE5E462DEC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -783,11 +784,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="764756432"/>
-        <c:axId val="764753520"/>
+        <c:axId val="-1021386752"/>
+        <c:axId val="-1021411232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="764756432"/>
+        <c:axId val="-1021386752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -830,7 +831,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="764753520"/>
+        <c:crossAx val="-1021411232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -838,7 +839,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="764753520"/>
+        <c:axId val="-1021411232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -889,7 +890,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="764756432"/>
+        <c:crossAx val="-1021386752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -903,6 +904,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -970,7 +972,7 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1119,7 +1121,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6C53-4ADA-B685-010F75CD9B50}"/>
             </c:ext>
@@ -1225,7 +1227,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-6C53-4ADA-B685-010F75CD9B50}"/>
             </c:ext>
@@ -1240,11 +1242,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="875861504"/>
-        <c:axId val="875870240"/>
+        <c:axId val="-1021384576"/>
+        <c:axId val="-1021381856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="875861504"/>
+        <c:axId val="-1021384576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1286,7 +1288,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="875870240"/>
+        <c:crossAx val="-1021381856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1294,7 +1296,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="875870240"/>
+        <c:axId val="-1021381856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1345,7 +1347,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="875861504"/>
+        <c:crossAx val="-1021384576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1426,7 +1428,7 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1440,6 +1442,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1575,7 +1578,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EE5F-4D7A-9325-3DD9837EF9FD}"/>
             </c:ext>
@@ -1681,7 +1684,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-EE5F-4D7A-9325-3DD9837EF9FD}"/>
             </c:ext>
@@ -1696,11 +1699,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="948278464"/>
-        <c:axId val="948276800"/>
+        <c:axId val="-1021386208"/>
+        <c:axId val="-1021403072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="948278464"/>
+        <c:axId val="-1021386208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1742,7 +1745,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="948276800"/>
+        <c:crossAx val="-1021403072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1750,7 +1753,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="948276800"/>
+        <c:axId val="-1021403072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1801,7 +1804,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="948278464"/>
+        <c:crossAx val="-1021386208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1815,6 +1818,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1882,7 +1886,7 @@
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1896,6 +1900,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2031,7 +2036,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6EF1-4F39-81DD-56B4906B8BE7}"/>
             </c:ext>
@@ -2137,7 +2142,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-6EF1-4F39-81DD-56B4906B8BE7}"/>
             </c:ext>
@@ -2152,11 +2157,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="948283456"/>
-        <c:axId val="948297600"/>
+        <c:axId val="-1021406336"/>
+        <c:axId val="-1021404704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="948283456"/>
+        <c:axId val="-1021406336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2198,7 +2203,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="948297600"/>
+        <c:crossAx val="-1021404704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2206,7 +2211,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="948297600"/>
+        <c:axId val="-1021404704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2257,7 +2262,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="948283456"/>
+        <c:crossAx val="-1021406336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2271,6 +2276,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2338,7 +2344,7 @@
 </file>
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -2352,6 +2358,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2487,7 +2494,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7C03-4799-9415-128D135F1E11}"/>
             </c:ext>
@@ -2593,7 +2600,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7C03-4799-9415-128D135F1E11}"/>
             </c:ext>
@@ -2608,11 +2615,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="985997904"/>
-        <c:axId val="986004976"/>
+        <c:axId val="-1021404160"/>
+        <c:axId val="-1021395456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="985997904"/>
+        <c:axId val="-1021404160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2654,7 +2661,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="986004976"/>
+        <c:crossAx val="-1021395456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2662,7 +2669,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="986004976"/>
+        <c:axId val="-1021395456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2713,7 +2720,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="985997904"/>
+        <c:crossAx val="-1021404160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2727,6 +2734,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2794,7 +2802,7 @@
 </file>
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -2969,7 +2977,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-BB22-4E5F-8020-017F0C4E1BAD}"/>
             </c:ext>
@@ -3075,7 +3083,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-BB22-4E5F-8020-017F0C4E1BAD}"/>
             </c:ext>
@@ -3090,11 +3098,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="948308000"/>
-        <c:axId val="948317984"/>
+        <c:axId val="-1021405248"/>
+        <c:axId val="-1021402528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="948308000"/>
+        <c:axId val="-1021405248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3136,7 +3144,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="948317984"/>
+        <c:crossAx val="-1021402528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3144,7 +3152,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="948317984"/>
+        <c:axId val="-1021402528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3195,7 +3203,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="948308000"/>
+        <c:crossAx val="-1021405248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3276,7 +3284,7 @@
 </file>
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3425,7 +3433,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1D0F-479E-A4BB-1DBE80C074D9}"/>
             </c:ext>
@@ -3621,7 +3629,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1D0F-479E-A4BB-1DBE80C074D9}"/>
             </c:ext>
@@ -3636,11 +3644,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="766601680"/>
-        <c:axId val="875892240"/>
+        <c:axId val="-1021401984"/>
+        <c:axId val="-1021400896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="766601680"/>
+        <c:axId val="-1021401984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3682,7 +3690,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="875892240"/>
+        <c:crossAx val="-1021400896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3690,7 +3698,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="875892240"/>
+        <c:axId val="-1021400896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3741,7 +3749,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="766601680"/>
+        <c:crossAx val="-1021401984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3822,7 +3830,7 @@
 </file>
 
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3971,7 +3979,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6760-4CA5-9B8F-BF415A6FABF0}"/>
             </c:ext>
@@ -4077,7 +4085,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-6760-4CA5-9B8F-BF415A6FABF0}"/>
             </c:ext>
@@ -4092,11 +4100,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1810195856"/>
-        <c:axId val="1810195440"/>
+        <c:axId val="-1021385120"/>
+        <c:axId val="-1021391648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1810195856"/>
+        <c:axId val="-1021385120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4138,7 +4146,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1810195440"/>
+        <c:crossAx val="-1021391648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4146,7 +4154,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1810195440"/>
+        <c:axId val="-1021391648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4197,7 +4205,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1810195856"/>
+        <c:crossAx val="-1021385120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4278,7 +4286,7 @@
 </file>
 
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -4545,7 +4553,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-60A5-4987-8382-8EC5187F4F40}"/>
             </c:ext>
@@ -4738,7 +4746,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-60A5-4987-8382-8EC5187F4F40}"/>
             </c:ext>
@@ -4753,11 +4761,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1051492464"/>
-        <c:axId val="1051493712"/>
+        <c:axId val="-1021394912"/>
+        <c:axId val="-1021400352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1051492464"/>
+        <c:axId val="-1021394912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4800,7 +4808,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1051493712"/>
+        <c:crossAx val="-1021400352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4808,7 +4816,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1051493712"/>
+        <c:axId val="-1021400352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4859,7 +4867,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1051492464"/>
+        <c:crossAx val="-1021394912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4941,7 +4949,7 @@
 </file>
 
 <file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -5224,7 +5232,7 @@
             <c:numRef>
               <c:f>Generation!$J$3:$AH$3</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>[&gt;0.05]0.0;[=0]\-;\^</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>9.2046006605959612</c:v>
@@ -5305,7 +5313,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1226-4561-84B5-7ABD43ADF5DB}"/>
             </c:ext>
@@ -5678,7 +5686,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1226-4561-84B5-7ABD43ADF5DB}"/>
             </c:ext>
@@ -5693,11 +5701,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1128464128"/>
-        <c:axId val="1128460384"/>
+        <c:axId val="-1021399808"/>
+        <c:axId val="-1021393824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1128464128"/>
+        <c:axId val="-1021399808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5740,7 +5748,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1128460384"/>
+        <c:crossAx val="-1021393824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5748,7 +5756,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1128460384"/>
+        <c:axId val="-1021393824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5768,7 +5776,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="[&gt;0.05]0.0;[=0]\-;\^" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5799,7 +5807,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1128464128"/>
+        <c:crossAx val="-1021399808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5881,7 +5889,7 @@
 </file>
 
 <file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -6144,7 +6152,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0C8E-49EA-8023-F91E28E6037A}"/>
             </c:ext>
@@ -6337,7 +6345,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0C8E-49EA-8023-F91E28E6037A}"/>
             </c:ext>
@@ -6352,11 +6360,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="831134512"/>
-        <c:axId val="831136592"/>
+        <c:axId val="-1021399264"/>
+        <c:axId val="-1021398176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="831134512"/>
+        <c:axId val="-1021399264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6399,7 +6407,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="831136592"/>
+        <c:crossAx val="-1021398176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6407,7 +6415,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="831136592"/>
+        <c:axId val="-1021398176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6458,7 +6466,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="831134512"/>
+        <c:crossAx val="-1021399264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6540,7 +6548,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -6554,6 +6562,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6689,7 +6698,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6534-435B-9FFA-36F843D92D27}"/>
             </c:ext>
@@ -6885,7 +6894,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-6534-435B-9FFA-36F843D92D27}"/>
             </c:ext>
@@ -6900,11 +6909,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="948336288"/>
-        <c:axId val="948339616"/>
+        <c:axId val="-1021383488"/>
+        <c:axId val="-1021410144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="948336288"/>
+        <c:axId val="-1021383488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6946,7 +6955,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="948339616"/>
+        <c:crossAx val="-1021410144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6954,7 +6963,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="948339616"/>
+        <c:axId val="-1021410144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7005,7 +7014,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="948336288"/>
+        <c:crossAx val="-1021383488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7019,6 +7028,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7086,7 +7096,7 @@
 </file>
 
 <file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -7362,7 +7372,7 @@
             <c:numRef>
               <c:f>Generation!$J$28:$AH$28</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>[&gt;0.05]0.0;[=0]\-;\^</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>4.8285852452525244</c:v>
@@ -7443,7 +7453,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0D25-473A-83B0-EFC28C4F5225}"/>
             </c:ext>
@@ -7832,7 +7842,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0D25-473A-83B0-EFC28C4F5225}"/>
             </c:ext>
@@ -7847,11 +7857,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="831142416"/>
-        <c:axId val="831124112"/>
+        <c:axId val="-1021392736"/>
+        <c:axId val="-1021397632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="831142416"/>
+        <c:axId val="-1021392736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7894,7 +7904,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="831124112"/>
+        <c:crossAx val="-1021397632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7902,7 +7912,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="831124112"/>
+        <c:axId val="-1021397632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7922,7 +7932,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="[&gt;0.05]0.0;[=0]\-;\^" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7953,7 +7963,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="831142416"/>
+        <c:crossAx val="-1021392736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8035,7 +8045,7 @@
 </file>
 
 <file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -8185,7 +8195,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EE1D-48F8-B3D7-83795771211E}"/>
             </c:ext>
@@ -8291,7 +8301,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-EE1D-48F8-B3D7-83795771211E}"/>
             </c:ext>
@@ -8306,11 +8316,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="831135760"/>
-        <c:axId val="831137424"/>
+        <c:axId val="-1021397088"/>
+        <c:axId val="-1021396544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="831135760"/>
+        <c:axId val="-1021397088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8352,7 +8362,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="831137424"/>
+        <c:crossAx val="-1021396544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8360,7 +8370,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="831137424"/>
+        <c:axId val="-1021396544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8411,7 +8421,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="831135760"/>
+        <c:crossAx val="-1021397088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8493,7 +8503,7 @@
 </file>
 
 <file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -8643,7 +8653,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-379F-464F-AFC7-B65C4CD3E982}"/>
             </c:ext>
@@ -8839,7 +8849,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-379F-464F-AFC7-B65C4CD3E982}"/>
             </c:ext>
@@ -8854,11 +8864,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="831140336"/>
-        <c:axId val="831142000"/>
+        <c:axId val="-1021392192"/>
+        <c:axId val="-1021389472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="831140336"/>
+        <c:axId val="-1021392192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8900,7 +8910,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="831142000"/>
+        <c:crossAx val="-1021389472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8908,7 +8918,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="831142000"/>
+        <c:axId val="-1021389472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8959,7 +8969,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="831140336"/>
+        <c:crossAx val="-1021392192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9041,7 +9051,3469 @@
 </file>
 
 <file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Generation!$J$74:$AH$74</c:f>
+              <c:numCache>
+                <c:formatCode>0.000_ ;\-0.000\ </c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>4.1973985222222218E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.102925997979798</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1113723801988889</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14847192031646464</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25211479573939394</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.32099102532626267</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.45886673841212122</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.44309745380303034</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.5434144919363636</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.53230114051212118</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.77378927034757561</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.161459974647495</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.6704335559913965</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.0779276128222435</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.4491277666709861</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.3243590147934068</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.8041473519527491</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.196910547083306</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18.58168150222464</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>31.460386821823096</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45.177003491396867</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>56.131776704677499</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>65.758986944865185</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>78.764940088184588</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>85.418426049307428</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-42E3-48F4-B971-2744E140F98A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Generation!$J$78:$AH$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>8.7690452176833536E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.5190507223483541E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0836501781658542E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3150683411666969E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7215565384267148E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4355209513146348E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.6894321264693469E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.8912911621480192E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.7566852894699893E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.16539189973965171</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.28430278225440009</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.49247065393239309</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.85595613814268523</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4877987072006229</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.5775914847859993</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.4322071604220623</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.5175043027474784</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12.461149057321435</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.925262075471917</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>30.240855656892947</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42.881595240715221</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>56.273996038495433</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>68.443392707505055</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>78.052560746362545</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>84.832853741717287</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-42E3-48F4-B971-2744E140F98A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-1021388928"/>
+        <c:axId val="-1021387296"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1021388928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1021387296"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1021387296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000_ ;\-0.000\ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1021388928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Generation!$J$74:$AH$74</c:f>
+              <c:numCache>
+                <c:formatCode>0.000_ ;\-0.000\ </c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>4.1973985222222218E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.102925997979798</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1113723801988889</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14847192031646464</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25211479573939394</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.32099102532626267</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.45886673841212122</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.44309745380303034</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.5434144919363636</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.53230114051212118</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.77378927034757561</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.161459974647495</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.6704335559913965</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.0779276128222435</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.4491277666709861</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.3243590147934068</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.8041473519527491</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.196910547083306</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18.58168150222464</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>31.460386821823096</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45.177003491396867</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>56.131776704677499</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>65.758986944865185</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>78.764940088184588</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>85.418426049307428</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C0C2-4101-AF77-64124DA1DBE0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Generation!$J$78:$BL$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="55"/>
+                <c:pt idx="0">
+                  <c:v>8.7690452176833536E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.5190507223483541E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0836501781658542E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3150683411666969E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7215565384267148E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4355209513146348E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.6894321264693469E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.8912911621480192E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.7566852894699893E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.16539189973965171</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.28430278225440009</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.49247065393239309</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.85595613814268523</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4877987072006229</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.5775914847859993</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.4322071604220623</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.5175043027474784</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12.461149057321435</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.925262075471917</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>30.240855656892947</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42.881595240715221</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>56.273996038495433</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>68.443392707505055</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>78.052560746362545</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>84.832853741717287</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>89.246296806083521</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>91.970152131308197</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>93.596356503615979</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>94.548061700711784</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>95.098537838352087</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>95.414781947472434</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>95.595752526435774</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>95.699081181567053</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>95.758003240204417</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>95.79157840069611</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>95.810702352872838</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>95.821592513987653</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>95.82779309468394</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>95.83132327637496</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>95.833333029703553</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>95.834477165676432</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>95.835128503603613</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>95.835499296657687</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>95.83571038041552</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>95.835830545115982</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>95.83589895177073</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>95.835937893876263</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>95.835960062579858</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>95.835972682628935</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>95.835979866883662</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>95.835983956686434</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>95.835986284900912</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>95.835987610290616</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>95.835988364799192</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>95.835988794320585</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C0C2-4101-AF77-64124DA1DBE0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-1618382000"/>
+        <c:axId val="-1618373840"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1618382000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1618373840"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1618373840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000_ ;\-0.000\ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1618382000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Generation!$J$97:$AH$97</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000_ ;\-0.0000\ </c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.1999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.6E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0101010101010107E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.8000000000000005E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.7999999999999988E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.0999999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.12E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.7859999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2539000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.8116E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.11217E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.12567120000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.32905929999999994</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.52390329999999996</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.60696369999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.82907509999999995</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.3396433999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.5985886210108728</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-917A-4E92-B339-61AC56D22FD1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Generation!$J$101:$AH$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>7.9043457755116752E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.346018748515048E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2921141507292405E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9032044263729694E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.6467021870096689E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1318553205954754E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9274149728754463E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.2821534734903942E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.5890941465226165E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.5174820268939216E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6206881979320448E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.7597603039982237E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.6993076167986666E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.0016658359990406E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.3623846647399294E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.3193846557204058E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.9479078613646058E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.7178015195185098E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.11425083716021101</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19413530442792856</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.32937719594012127</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.55740902180076557</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.93927276058974984</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.5714765324453981</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.5985878486245637</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-917A-4E92-B339-61AC56D22FD1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-1618372208"/>
+        <c:axId val="-1670767792"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1618372208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1670767792"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1670767792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000_ ;\-0.0000\ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1618372208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Generation!$J$97:$AH$97</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000_ ;\-0.0000\ </c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.1999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.6E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0101010101010107E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.8000000000000005E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.7999999999999988E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.0999999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.12E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.7859999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2539000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.8116E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.11217E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.12567120000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.32905929999999994</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.52390329999999996</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.60696369999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.82907509999999995</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.3396433999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.5985886210108728</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8BF7-420C-A8F3-ABDB67512BF7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Generation!$J$101:$BL$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="55"/>
+                <c:pt idx="0">
+                  <c:v>7.9043457755116752E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.346018748515048E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2921141507292405E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9032044263729694E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.6467021870096689E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1318553205954754E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9274149728754463E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.2821534734903942E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.5890941465226165E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.5174820268939216E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6206881979320448E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.7597603039982237E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.6993076167986666E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.0016658359990406E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.3623846647399294E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.3193846557204058E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.9479078613646058E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.7178015195185098E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.11425083716021101</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19413530442792856</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.32937719594012127</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.55740902180076557</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.93927276058974984</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.5714765324453981</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.5985878486245637</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.2172349093910126</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.6495671080100385</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10.055232414841454</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14.380277153809573</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>19.240101999143235</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>24.003853301028709</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>28.087735355552397</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>31.205458531262057</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33.381362057140379</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34.806593327577374</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35.701721451663467</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36.249161294067243</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>36.578534527048333</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>36.774759799470473</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>36.890975158949324</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>36.959564287310343</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>36.999961479116415</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>37.023725460662817</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>37.037694824840088</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>37.045903091650771</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>37.05072500034332</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>37.053557197348304</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>37.05522057517279</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>37.056197444802315</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>37.056771124573238</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>37.057108019882143</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>37.05730586074003</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>37.057422041556094</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>37.057490267780715</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>37.057530332985301</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8BF7-420C-A8F3-ABDB67512BF7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-1618991488"/>
+        <c:axId val="-880649696"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1618991488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-880649696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-880649696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000_ ;\-0.0000\ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1618991488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Generation!$J$120:$AH$120</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000000_ ;\-0.0000000\ </c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>7.0999999999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2000000000000007E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.6E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9799999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
+                  <c:v>0.17549999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
+                  <c:v>0.41558</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
+                  <c:v>0.44358400000000003</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
+                  <c:v>0.53559899999999994</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
+                  <c:v>0.76828050505050505</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
+                  <c:v>0.78038211111111122</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
+                  <c:v>0.85256560606060605</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
+                  <c:v>1.0162233636393438</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
+                  <c:v>1.3117781313131314</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
+                  <c:v>1.5892309393954298</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
+                  <c:v>2.2845824343391428</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
+                  <c:v>2.3865039393796339</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
+                  <c:v>2.5156302404970825</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
+                  <c:v>3.5934473025557492</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
+                  <c:v>5.0600728342123169</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
+                  <c:v>8.9106862826232405</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
+                  <c:v>11.176370672793865</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
+                  <c:v>12.457774095742918</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
+                  <c:v>14.770723351762967</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
+                  <c:v>18.857729132981873</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
+                  <c:v>21.789843068502105</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8144-4305-9B27-5860482FD348}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Generation!$J$124:$AH$124</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>2.7204085276412233E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5181851649267556E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.6201112445421605E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.1418598250884478E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.242839742151109E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11142499461150163</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.15142498005030983</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.20656662854865274</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.28251106338566967</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.38697256303897598</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.53040655704759632</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.72687762156305202</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.99510827663062995</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3596590035101468</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.8520901459594659</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.511781942641941</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.3858220375233965</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.5270341024194822</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.9889481789439936</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.8166244407180603</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10.033247588358588</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12.624708664013053</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15.527522480173296</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>18.627337513822312</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>21.773064659289407</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8144-4305-9B27-5860482FD348}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-880648064"/>
+        <c:axId val="-880661664"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-880648064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-880661664"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-880661664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000000_ ;\-0.0000000\ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-880648064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Generation!$J$120:$AH$120</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000000_ ;\-0.0000000\ </c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>7.0999999999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2000000000000007E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.6E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9799999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
+                  <c:v>0.17549999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
+                  <c:v>0.41558</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
+                  <c:v>0.44358400000000003</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
+                  <c:v>0.53559899999999994</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
+                  <c:v>0.76828050505050505</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
+                  <c:v>0.78038211111111122</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
+                  <c:v>0.85256560606060605</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
+                  <c:v>1.0162233636393438</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
+                  <c:v>1.3117781313131314</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
+                  <c:v>1.5892309393954298</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
+                  <c:v>2.2845824343391428</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
+                  <c:v>2.3865039393796339</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
+                  <c:v>2.5156302404970825</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
+                  <c:v>3.5934473025557492</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
+                  <c:v>5.0600728342123169</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
+                  <c:v>8.9106862826232405</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
+                  <c:v>11.176370672793865</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
+                  <c:v>12.457774095742918</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
+                  <c:v>14.770723351762967</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
+                  <c:v>18.857729132981873</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
+                  <c:v>21.789843068502105</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-13DC-4E5E-9C21-429C5C28EC4B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Generation!$J$124:$BL$124</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="55"/>
+                <c:pt idx="0">
+                  <c:v>2.7204085276412233E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5181851649267556E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.6201112445421605E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.1418598250884478E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.242839742151109E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11142499461150163</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.15142498005030983</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.20656662854865274</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.28251106338566967</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.38697256303897598</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.53040655704759632</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.72687762156305202</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.99510827663062995</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3596590035101468</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.8520901459594659</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.511781942641941</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.3858220375233965</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.5270341024194822</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.9889481789439936</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.8166244407180603</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10.033247588358588</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12.624708664013053</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15.527522480173296</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>18.627337513822312</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>21.773064659289407</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>24.804550387200379</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27.583844820114916</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>30.017836318086566</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>32.065373198731372</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>33.730319169928656</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35.047185099126878</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>36.066111942205971</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>36.841188511088582</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>37.423165571313575</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>37.855903692779002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>38.175341501582842</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>38.409879926558055</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38.581404827573209</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38.706484233975061</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>38.797502645756715</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>38.863633865282786</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>38.911629274052338</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>38.94643425919881</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>38.97165909527186</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>38.989932965216319</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>39.003167201324601</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>39.01274951321767</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>39.019686510838575</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>39.024707878031194</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>39.028342302418643</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>39.030972707745136</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>39.032876372399386</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>39.034254039457664</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>39.035251023049717</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>39.035972503296904</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-13DC-4E5E-9C21-429C5C28EC4B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-880647520"/>
+        <c:axId val="-880655680"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-880647520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-880655680"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-880655680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000000_ ;\-0.0000000\ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-880647520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Generation!$J$143:$AH$143</c:f>
+              <c:numCache>
+                <c:formatCode>[&gt;0.05]0.0;[=0]\-;\^</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0.99120506648484863</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2139500414949493</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4895501665959596</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0532490063939393</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5639469797046872</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5174094179774134</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0670132466788278</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.340875855153624</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.1866933999731586</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.019193605714049</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.569807133841692</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24.603131414364725</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>36.079894595419162</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>54.847978275086589</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>81.484196549660197</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>113.55108762856062</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>147.72358009362827</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>188.47214342588194</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>214.27268709044878</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>243.0600532468541</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>311.20761354133009</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>387.09777822668809</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>461.95175806528346</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>509.36830709449487</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>572.63610606139696</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-122E-401F-84A6-A492D549EFD3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Generation!$J$147:$AH$147</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>2.3630060775086528</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.799110225707417</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3880095959750545</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.1829020669377641</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.2552306987116806</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.700714401793241</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.6471858264012802</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.26462370725336</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.777714623486309</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.481076559915003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25.756794036084727</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>34.092953398328497</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45.100161677877743</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>59.520313321056605</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>78.218066163641979</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>102.14118890566199</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>132.23314918823169</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>169.28418912164659</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>213.72161284253193</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>265.37018063083252</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>323.25373314194059</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>385.53666453088965</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>449.68492612278555</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>512.84554288919412</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>572.33608742582908</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-122E-401F-84A6-A492D549EFD3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-880663296"/>
+        <c:axId val="-880662208"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-880663296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-880662208"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-880662208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="[&gt;0.05]0.0;[=0]\-;\^" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-880663296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -9108,92 +12580,92 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Generation!$J$74:$AH$74</c:f>
+              <c:f>Capacities!$J$51:$AH$51</c:f>
               <c:numCache>
-                <c:formatCode>0.000_ ;\-0.000\ </c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>4.1973985222222218E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.102925997979798</c:v>
+                  <c:v>1.639</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1113723801988889</c:v>
+                  <c:v>2.226</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.14847192031646464</c:v>
+                  <c:v>2.573</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.25211479573939394</c:v>
+                  <c:v>2.5329999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.32099102532626267</c:v>
+                  <c:v>4.0949999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.45886673841212122</c:v>
+                  <c:v>4.7050000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.44309745380303034</c:v>
+                  <c:v>6.3639999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.5434144919363636</c:v>
+                  <c:v>6.9180000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.53230114051212118</c:v>
+                  <c:v>9.4009999999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.77378927034757561</c:v>
+                  <c:v>12.853</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.161459974647495</c:v>
+                  <c:v>18.456</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.6704335559913965</c:v>
+                  <c:v>27.088000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.0779276128222435</c:v>
+                  <c:v>38.003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.4491277666709861</c:v>
+                  <c:v>43.621000000000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.3243590147934068</c:v>
+                  <c:v>51.542000000000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.8041473519527491</c:v>
+                  <c:v>67.090999999999994</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10.196910547083306</c:v>
+                  <c:v>69.896000000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18.58168150222464</c:v>
+                  <c:v>76.495000000000005</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>31.460386821823096</c:v>
+                  <c:v>87.058019999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>45.177003491396867</c:v>
+                  <c:v>97.31</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>56.131776704677499</c:v>
+                  <c:v>104.19897999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>65.758986944865185</c:v>
+                  <c:v>112.10877499999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>78.764940088184588</c:v>
+                  <c:v>123.57487500000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>85.418426049307428</c:v>
+                  <c:v>139.44900000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-42E3-48F4-B971-2744E140F98A}"/>
+              <c16:uniqueId val="{00000000-D1E8-487B-9001-2D4B6864EE10}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9214,92 +12686,182 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Generation!$J$78:$AH$78</c:f>
+              <c:f>Capacities!$J$55:$BL$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
-                  <c:v>8.7690452176833536E-3</c:v>
+                  <c:v>1.7635647585057892</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.5190507223483541E-3</c:v>
+                  <c:v>2.1475556573931986</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0836501781658542E-2</c:v>
+                  <c:v>2.6466220109286884</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3150683411666969E-2</c:v>
+                  <c:v>3.294127982057899</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7215565384267148E-2</c:v>
+                  <c:v>4.1323402412064247</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.4355209513146348E-2</c:v>
+                  <c:v>5.214277714963826</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.6894321264693469E-2</c:v>
+                  <c:v>6.605581474461192</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.8912911621480192E-2</c:v>
+                  <c:v>8.3861098786434951</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.7566852894699893E-2</c:v>
+                  <c:v>10.650750647569982</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.16539189973965171</c:v>
+                  <c:v>13.508659134633415</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.28430278225440009</c:v>
+                  <c:v>17.079818353037535</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.49247065393239309</c:v>
+                  <c:v>21.487582941092448</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.85595613814268523</c:v>
+                  <c:v>26.845939357652529</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.4877987072006229</c:v>
+                  <c:v>33.240921892282103</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.5775914847859993</c:v>
+                  <c:v>40.707297728644605</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.4322071604220623</c:v>
+                  <c:v>49.204295299676602</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.5175043027474784</c:v>
+                  <c:v>58.597075672928639</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>12.461149057321435</c:v>
+                  <c:v>68.652162659110957</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19.925262075471917</c:v>
+                  <c:v>79.053146776724802</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>30.240855656892947</c:v>
+                  <c:v>89.436946216872002</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>42.881595240715221</c:v>
+                  <c:v>99.442852156602612</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>56.273996038495433</c:v>
+                  <c:v>108.76090437988927</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>68.443392707505055</c:v>
+                  <c:v>117.16645156318303</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>78.052560746362545</c:v>
+                  <c:v>124.53384446312138</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>84.832853741717287</c:v>
+                  <c:v>130.83024489821628</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>136.09622256648004</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>140.42133116482182</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>143.92111983759327</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>146.71907802919802</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>148.93442643428691</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>150.67509139550566</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>152.03456740714742</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>153.09134312619599</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>153.90981459398424</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>154.54192343989786</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>155.0290346239301</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>155.40377497251558</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>155.69169251127258</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>155.91268212448881</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>156.08217151097821</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>156.21208602154255</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>156.3116212840014</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>156.38785484564607</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>156.4462263008482</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>156.49091182154555</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>156.5251149436549</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>156.55129153591204</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>156.57132338300818</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>156.5866518485044</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>156.59838063962772</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>156.60735472379429</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>156.61422087705625</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>156.6194741080146</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>156.6234932335893</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>156.6265681307539</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-42E3-48F4-B971-2744E140F98A}"/>
+              <c16:uniqueId val="{00000001-D1E8-487B-9001-2D4B6864EE10}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9312,11 +12874,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="831133680"/>
-        <c:axId val="831136176"/>
+        <c:axId val="-1021409056"/>
+        <c:axId val="-1021408512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="831133680"/>
+        <c:axId val="-1021409056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9358,7 +12920,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="831136176"/>
+        <c:crossAx val="-1021408512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9366,7 +12928,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="831136176"/>
+        <c:axId val="-1021408512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9386,7 +12948,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.000_ ;\-0.000\ " sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -9417,7 +12979,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="831133680"/>
+        <c:crossAx val="-1021409056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9498,3026 +13060,8 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Generation!$J$74:$AH$74</c:f>
-              <c:numCache>
-                <c:formatCode>0.000_ ;\-0.000\ </c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>4.1973985222222218E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.102925997979798</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1113723801988889</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.14847192031646464</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.25211479573939394</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.32099102532626267</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.45886673841212122</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.44309745380303034</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.5434144919363636</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.53230114051212118</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.77378927034757561</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.161459974647495</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.6704335559913965</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.0779276128222435</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.4491277666709861</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.3243590147934068</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>7.8041473519527491</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>10.196910547083306</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18.58168150222464</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>31.460386821823096</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>45.177003491396867</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>56.131776704677499</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>65.758986944865185</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>78.764940088184588</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>85.418426049307428</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C0C2-4101-AF77-64124DA1DBE0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Generation!$J$78:$BL$78</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="55"/>
-                <c:pt idx="0">
-                  <c:v>8.7690452176833536E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.5190507223483541E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0836501781658542E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.3150683411666969E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.7215565384267148E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.4355209513146348E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.6894321264693469E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.8912911621480192E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.7566852894699893E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.16539189973965171</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.28430278225440009</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.49247065393239309</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.85595613814268523</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.4877987072006229</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.5775914847859993</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.4322071604220623</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>7.5175043027474784</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>12.461149057321435</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19.925262075471917</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>30.240855656892947</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>42.881595240715221</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>56.273996038495433</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>68.443392707505055</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>78.052560746362545</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>84.832853741717287</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>89.246296806083521</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>91.970152131308197</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>93.596356503615979</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>94.548061700711784</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>95.098537838352087</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>95.414781947472434</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>95.595752526435774</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>95.699081181567053</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>95.758003240204417</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>95.79157840069611</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>95.810702352872838</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>95.821592513987653</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>95.82779309468394</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>95.83132327637496</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>95.833333029703553</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>95.834477165676432</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>95.835128503603613</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>95.835499296657687</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>95.83571038041552</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>95.835830545115982</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>95.83589895177073</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>95.835937893876263</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>95.835960062579858</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>95.835972682628935</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>95.835979866883662</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>95.835983956686434</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>95.835986284900912</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>95.835987610290616</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>95.835988364799192</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>95.835988794320585</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C0C2-4101-AF77-64124DA1DBE0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="831138256"/>
-        <c:axId val="831128688"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="831138256"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="831128688"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="831128688"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.000_ ;\-0.000\ " sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="831138256"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Generation!$J$97:$AH$97</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000_ ;\-0.0000\ </c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.9E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.0999999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.1999999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.6E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.0101010101010107E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7.8000000000000005E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8.7999999999999988E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.0499999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8.0999999999999996E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.12E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>9.7859999999999996E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.2539000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.8116E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.11217E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.12567120000000001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.32905929999999994</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.52390329999999996</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.60696369999999999</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.82907509999999995</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.3396433999999999</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.5985886210108728</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-917A-4E92-B339-61AC56D22FD1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Generation!$J$101:$AH$101</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>7.9043457755116752E-6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.346018748515048E-5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.2921141507292405E-5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.9032044263729694E-5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.6467021870096689E-5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.1318553205954754E-4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.9274149728754463E-4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.2821534734903942E-4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.5890941465226165E-4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.5174820268939216E-4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.6206881979320448E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.7597603039982237E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.6993076167986666E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8.0016658359990406E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.3623846647399294E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.3193846557204058E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.9479078613646058E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>6.7178015195185098E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.11425083716021101</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.19413530442792856</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.32937719594012127</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.55740902180076557</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.93927276058974984</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.5714765324453981</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.5985878486245637</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-917A-4E92-B339-61AC56D22FD1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="874562400"/>
-        <c:axId val="874564064"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="874562400"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="874564064"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="874564064"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.0000_ ;\-0.0000\ " sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="874562400"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Generation!$J$97:$AH$97</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000_ ;\-0.0000\ </c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.9E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.0999999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.1999999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.6E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.0101010101010107E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7.8000000000000005E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8.7999999999999988E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.0499999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8.0999999999999996E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.12E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>9.7859999999999996E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.2539000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.8116E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.11217E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.12567120000000001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.32905929999999994</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.52390329999999996</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.60696369999999999</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.82907509999999995</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.3396433999999999</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.5985886210108728</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8BF7-420C-A8F3-ABDB67512BF7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Generation!$J$101:$BL$101</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="55"/>
-                <c:pt idx="0">
-                  <c:v>7.9043457755116752E-6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.346018748515048E-5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.2921141507292405E-5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.9032044263729694E-5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.6467021870096689E-5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.1318553205954754E-4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.9274149728754463E-4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.2821534734903942E-4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.5890941465226165E-4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.5174820268939216E-4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.6206881979320448E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.7597603039982237E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.6993076167986666E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8.0016658359990406E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.3623846647399294E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.3193846557204058E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.9479078613646058E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>6.7178015195185098E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.11425083716021101</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.19413530442792856</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.32937719594012127</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.55740902180076557</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.93927276058974984</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.5714765324453981</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.5985878486245637</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>4.2172349093910126</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>6.6495671080100385</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>10.055232414841454</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>14.380277153809573</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>19.240101999143235</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>24.003853301028709</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>28.087735355552397</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>31.205458531262057</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>33.381362057140379</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>34.806593327577374</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>35.701721451663467</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>36.249161294067243</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>36.578534527048333</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>36.774759799470473</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>36.890975158949324</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>36.959564287310343</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>36.999961479116415</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>37.023725460662817</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>37.037694824840088</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>37.045903091650771</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>37.05072500034332</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>37.053557197348304</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>37.05522057517279</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>37.056197444802315</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>37.056771124573238</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>37.057108019882143</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>37.05730586074003</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>37.057422041556094</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>37.057490267780715</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>37.057530332985301</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8BF7-420C-A8F3-ABDB67512BF7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="831125776"/>
-        <c:axId val="831122032"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="831125776"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="831122032"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="831122032"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.0000_ ;\-0.0000\ " sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="831125776"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Generation!$J$120:$AH$120</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000000_ ;\-0.0000000\ </c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>7.0999999999999995E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.2000000000000007E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.6E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.9799999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
-                  <c:v>0.17549999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
-                  <c:v>0.41558</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
-                  <c:v>0.44358400000000003</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
-                  <c:v>0.53559899999999994</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
-                  <c:v>0.76828050505050505</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
-                  <c:v>0.78038211111111122</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
-                  <c:v>0.85256560606060605</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
-                  <c:v>1.0162233636393438</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
-                  <c:v>1.3117781313131314</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
-                  <c:v>1.5892309393954298</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
-                  <c:v>2.2845824343391428</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
-                  <c:v>2.3865039393796339</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
-                  <c:v>2.5156302404970825</c:v>
-                </c:pt>
-                <c:pt idx="17" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
-                  <c:v>3.5934473025557492</c:v>
-                </c:pt>
-                <c:pt idx="18" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
-                  <c:v>5.0600728342123169</c:v>
-                </c:pt>
-                <c:pt idx="19" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
-                  <c:v>8.9106862826232405</c:v>
-                </c:pt>
-                <c:pt idx="20" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
-                  <c:v>11.176370672793865</c:v>
-                </c:pt>
-                <c:pt idx="21" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
-                  <c:v>12.457774095742918</c:v>
-                </c:pt>
-                <c:pt idx="22" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
-                  <c:v>14.770723351762967</c:v>
-                </c:pt>
-                <c:pt idx="23" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
-                  <c:v>18.857729132981873</c:v>
-                </c:pt>
-                <c:pt idx="24" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
-                  <c:v>21.789843068502105</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8144-4305-9B27-5860482FD348}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Generation!$J$124:$AH$124</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>2.7204085276412233E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.5181851649267556E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.6201112445421605E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.1418598250884478E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.242839742151109E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.11142499461150163</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.15142498005030983</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.20656662854865274</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.28251106338566967</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.38697256303897598</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.53040655704759632</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.72687762156305202</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.99510827663062995</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.3596590035101468</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.8520901459594659</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.511781942641941</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.3858220375233965</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.5270341024194822</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5.9889481789439936</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>7.8166244407180603</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>10.033247588358588</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>12.624708664013053</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>15.527522480173296</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>18.627337513822312</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>21.773064659289407</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8144-4305-9B27-5860482FD348}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="691578608"/>
-        <c:axId val="691581936"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="691578608"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="691581936"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="691581936"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.0000000_ ;\-0.0000000\ " sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="691578608"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Generation!$J$120:$AH$120</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000000_ ;\-0.0000000\ </c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>7.0999999999999995E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.2000000000000007E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.6E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.9799999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
-                  <c:v>0.17549999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
-                  <c:v>0.41558</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
-                  <c:v>0.44358400000000003</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
-                  <c:v>0.53559899999999994</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
-                  <c:v>0.76828050505050505</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
-                  <c:v>0.78038211111111122</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
-                  <c:v>0.85256560606060605</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
-                  <c:v>1.0162233636393438</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
-                  <c:v>1.3117781313131314</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
-                  <c:v>1.5892309393954298</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
-                  <c:v>2.2845824343391428</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
-                  <c:v>2.3865039393796339</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
-                  <c:v>2.5156302404970825</c:v>
-                </c:pt>
-                <c:pt idx="17" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
-                  <c:v>3.5934473025557492</c:v>
-                </c:pt>
-                <c:pt idx="18" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
-                  <c:v>5.0600728342123169</c:v>
-                </c:pt>
-                <c:pt idx="19" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
-                  <c:v>8.9106862826232405</c:v>
-                </c:pt>
-                <c:pt idx="20" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
-                  <c:v>11.176370672793865</c:v>
-                </c:pt>
-                <c:pt idx="21" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
-                  <c:v>12.457774095742918</c:v>
-                </c:pt>
-                <c:pt idx="22" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
-                  <c:v>14.770723351762967</c:v>
-                </c:pt>
-                <c:pt idx="23" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
-                  <c:v>18.857729132981873</c:v>
-                </c:pt>
-                <c:pt idx="24" formatCode="[&gt;0.05]0.0;[=0]\-;\^">
-                  <c:v>21.789843068502105</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-13DC-4E5E-9C21-429C5C28EC4B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Generation!$J$124:$BL$124</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="55"/>
-                <c:pt idx="0">
-                  <c:v>2.7204085276412233E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.5181851649267556E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.6201112445421605E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.1418598250884478E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.242839742151109E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.11142499461150163</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.15142498005030983</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.20656662854865274</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.28251106338566967</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.38697256303897598</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.53040655704759632</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.72687762156305202</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.99510827663062995</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.3596590035101468</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.8520901459594659</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.511781942641941</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.3858220375233965</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.5270341024194822</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5.9889481789439936</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>7.8166244407180603</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>10.033247588358588</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>12.624708664013053</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>15.527522480173296</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>18.627337513822312</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>21.773064659289407</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>24.804550387200379</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27.583844820114916</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>30.017836318086566</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>32.065373198731372</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>33.730319169928656</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>35.047185099126878</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>36.066111942205971</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>36.841188511088582</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>37.423165571313575</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>37.855903692779002</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>38.175341501582842</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>38.409879926558055</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>38.581404827573209</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>38.706484233975061</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>38.797502645756715</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>38.863633865282786</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>38.911629274052338</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>38.94643425919881</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>38.97165909527186</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>38.989932965216319</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>39.003167201324601</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>39.01274951321767</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>39.019686510838575</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>39.024707878031194</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>39.028342302418643</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>39.030972707745136</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>39.032876372399386</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>39.034254039457664</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>39.035251023049717</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>39.035972503296904</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-13DC-4E5E-9C21-429C5C28EC4B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="831145328"/>
-        <c:axId val="831127024"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="831145328"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="831127024"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="831127024"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.0000000_ ;\-0.0000000\ " sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="831145328"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Generation!$J$143:$AH$143</c:f>
-              <c:numCache>
-                <c:formatCode>[&gt;0.05]0.0;[=0]\-;\^</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>0.99120506648484863</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.2139500414949493</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.4895501665959596</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.0532490063939393</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.5639469797046872</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.5174094179774134</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.0670132466788278</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.340875855153624</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.1866933999731586</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12.019193605714049</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18.569807133841692</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>24.603131414364725</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>36.079894595419162</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>54.847978275086589</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>81.484196549660197</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>113.55108762856062</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>147.72358009362827</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>188.47214342588194</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>214.27268709044878</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>243.0600532468541</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>311.20761354133009</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>387.09777822668809</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>461.95175806528346</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>509.36830709449487</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>572.63610606139696</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-122E-401F-84A6-A492D549EFD3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Generation!$J$147:$AH$147</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>2.3630060775086528</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.799110225707417</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.3880095959750545</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.1829020669377641</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.2552306987116806</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.700714401793241</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.6471858264012802</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11.26462370725336</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14.777714623486309</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19.481076559915003</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>25.756794036084727</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>34.092953398328497</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>45.100161677877743</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>59.520313321056605</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>78.218066163641979</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>102.14118890566199</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>132.23314918823169</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>169.28418912164659</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>213.72161284253193</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>265.37018063083252</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>323.25373314194059</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>385.53666453088965</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>449.68492612278555</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>512.84554288919412</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>572.33608742582908</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-122E-401F-84A6-A492D549EFD3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1045149120"/>
-        <c:axId val="1045152864"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1045149120"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1045152864"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1045152864"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="[&gt;0.05]0.0;[=0]\-;\^" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1045149120"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -12583,92 +13127,92 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Capacities!$J$51:$AH$51</c:f>
+              <c:f>Generation!$J$143:$AH$143</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>[&gt;0.05]0.0;[=0]\-;\^</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.99120506648484863</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.639</c:v>
+                  <c:v>1.2139500414949493</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.226</c:v>
+                  <c:v>1.4895501665959596</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.573</c:v>
+                  <c:v>2.0532490063939393</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.5329999999999999</c:v>
+                  <c:v>2.5639469797046872</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.0949999999999998</c:v>
+                  <c:v>3.5174094179774134</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.7050000000000001</c:v>
+                  <c:v>4.0670132466788278</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.3639999999999999</c:v>
+                  <c:v>5.340875855153624</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.9180000000000001</c:v>
+                  <c:v>9.1866933999731586</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.4009999999999998</c:v>
+                  <c:v>12.019193605714049</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.853</c:v>
+                  <c:v>18.569807133841692</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18.456</c:v>
+                  <c:v>24.603131414364725</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>27.088000000000001</c:v>
+                  <c:v>36.079894595419162</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>38.003</c:v>
+                  <c:v>54.847978275086589</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43.621000000000002</c:v>
+                  <c:v>81.484196549660197</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>51.542000000000002</c:v>
+                  <c:v>113.55108762856062</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>67.090999999999994</c:v>
+                  <c:v>147.72358009362827</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>69.896000000000001</c:v>
+                  <c:v>188.47214342588194</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>76.495000000000005</c:v>
+                  <c:v>214.27268709044878</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>87.058019999999999</c:v>
+                  <c:v>243.0600532468541</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>97.31</c:v>
+                  <c:v>311.20761354133009</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>104.19897999999999</c:v>
+                  <c:v>387.09777822668809</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>112.10877499999999</c:v>
+                  <c:v>461.95175806528346</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>123.57487500000001</c:v>
+                  <c:v>509.36830709449487</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>139.44900000000001</c:v>
+                  <c:v>572.63610606139696</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D1E8-487B-9001-2D4B6864EE10}"/>
+              <c16:uniqueId val="{00000000-B969-4A38-BAC4-5F5A447DE2D1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12689,182 +13233,182 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Capacities!$J$55:$BL$55</c:f>
+              <c:f>Generation!$J$147:$BL$147</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="55"/>
                 <c:pt idx="0">
-                  <c:v>1.7635647585057892</c:v>
+                  <c:v>2.3630060775086528</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1475556573931986</c:v>
+                  <c:v>2.799110225707417</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6466220109286884</c:v>
+                  <c:v>3.3880095959750545</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.294127982057899</c:v>
+                  <c:v>4.1829020669377641</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.1323402412064247</c:v>
+                  <c:v>5.2552306987116806</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.214277714963826</c:v>
+                  <c:v>6.700714401793241</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.605581474461192</c:v>
+                  <c:v>8.6471858264012802</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.3861098786434951</c:v>
+                  <c:v>11.26462370725336</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.650750647569982</c:v>
+                  <c:v>14.777714623486309</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.508659134633415</c:v>
+                  <c:v>19.481076559915003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17.079818353037535</c:v>
+                  <c:v>25.756794036084727</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>21.487582941092448</c:v>
+                  <c:v>34.092953398328497</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>26.845939357652529</c:v>
+                  <c:v>45.100161677877743</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>33.240921892282103</c:v>
+                  <c:v>59.520313321056605</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>40.707297728644605</c:v>
+                  <c:v>78.218066163641979</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>49.204295299676602</c:v>
+                  <c:v>102.14118890566199</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>58.597075672928639</c:v>
+                  <c:v>132.23314918823169</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>68.652162659110957</c:v>
+                  <c:v>169.28418912164659</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>79.053146776724802</c:v>
+                  <c:v>213.72161284253193</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>89.436946216872002</c:v>
+                  <c:v>265.37018063083252</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>99.442852156602612</c:v>
+                  <c:v>323.25373314194059</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>108.76090437988927</c:v>
+                  <c:v>385.53666453088965</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>117.16645156318303</c:v>
+                  <c:v>449.68492612278555</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>124.53384446312138</c:v>
+                  <c:v>512.84554288919412</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>130.83024489821628</c:v>
+                  <c:v>572.33608742582908</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>136.09622256648004</c:v>
+                  <c:v>626.07460730571245</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>140.42133116482182</c:v>
+                  <c:v>672.81399856660312</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>143.92111983759327</c:v>
+                  <c:v>712.14602677020048</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>146.71907802919802</c:v>
+                  <c:v>744.33565446078558</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>148.93442643428691</c:v>
+                  <c:v>770.08481831761799</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>150.67509139550566</c:v>
+                  <c:v>790.30826081941234</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>152.03456740714742</c:v>
+                  <c:v>805.9644749648661</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>153.09134312619599</c:v>
+                  <c:v>817.95019365701626</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>153.90981459398424</c:v>
+                  <c:v>827.04765618707972</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>154.54192343989786</c:v>
+                  <c:v>833.90805125002294</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>155.0290346239301</c:v>
+                  <c:v>839.05611801855855</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>155.40377497251558</c:v>
+                  <c:v>842.90502149244151</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>155.69169251127258</c:v>
+                  <c:v>845.77468809904281</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>155.91268212448881</c:v>
+                  <c:v>847.90985600714339</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>156.08217151097821</c:v>
+                  <c:v>849.49609050890535</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>156.21208602154255</c:v>
+                  <c:v>850.673177195118</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>156.3116212840014</c:v>
+                  <c:v>851.54591270155913</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>156.38785484564607</c:v>
+                  <c:v>852.19258582449106</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>156.4462263008482</c:v>
+                  <c:v>852.67153054760581</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>156.49091182154555</c:v>
+                  <c:v>853.02612886133227</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>156.5251149436549</c:v>
+                  <c:v>853.28859748291427</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>156.55129153591204</c:v>
+                  <c:v>853.48283641670616</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>156.57132338300818</c:v>
+                  <c:v>853.6265621792495</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>156.5866518485044</c:v>
+                  <c:v>853.73290009565073</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>156.59838063962772</c:v>
+                  <c:v>853.81156998090751</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>156.60735472379429</c:v>
+                  <c:v>853.86976748487916</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>156.61422087705625</c:v>
+                  <c:v>853.91281836703888</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>156.6194741080146</c:v>
+                  <c:v>853.94466373919113</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>156.6234932335893</c:v>
+                  <c:v>853.9682196918468</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>156.6265681307539</c:v>
+                  <c:v>853.98564368422399</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D1E8-487B-9001-2D4B6864EE10}"/>
+              <c16:uniqueId val="{00000001-B969-4A38-BAC4-5F5A447DE2D1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12877,11 +13421,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="948301760"/>
-        <c:axId val="948312160"/>
+        <c:axId val="-880652960"/>
+        <c:axId val="-880656224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="948301760"/>
+        <c:axId val="-880652960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12923,7 +13467,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="948312160"/>
+        <c:crossAx val="-880656224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12931,7 +13475,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="948312160"/>
+        <c:axId val="-880656224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12951,7 +13495,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="[&gt;0.05]0.0;[=0]\-;\^" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -12982,7 +13526,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="948301760"/>
+        <c:crossAx val="-880652960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13062,8 +13606,8 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -13077,555 +13621,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Generation!$J$143:$AH$143</c:f>
-              <c:numCache>
-                <c:formatCode>[&gt;0.05]0.0;[=0]\-;\^</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>0.99120506648484863</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.2139500414949493</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.4895501665959596</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.0532490063939393</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.5639469797046872</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.5174094179774134</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.0670132466788278</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.340875855153624</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.1866933999731586</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12.019193605714049</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18.569807133841692</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>24.603131414364725</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>36.079894595419162</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>54.847978275086589</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>81.484196549660197</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>113.55108762856062</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>147.72358009362827</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>188.47214342588194</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>214.27268709044878</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>243.0600532468541</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>311.20761354133009</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>387.09777822668809</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>461.95175806528346</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>509.36830709449487</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>572.63610606139696</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B969-4A38-BAC4-5F5A447DE2D1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Generation!$J$147:$BL$147</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="55"/>
-                <c:pt idx="0">
-                  <c:v>2.3630060775086528</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.799110225707417</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.3880095959750545</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.1829020669377641</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.2552306987116806</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.700714401793241</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.6471858264012802</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11.26462370725336</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14.777714623486309</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19.481076559915003</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>25.756794036084727</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>34.092953398328497</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>45.100161677877743</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>59.520313321056605</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>78.218066163641979</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>102.14118890566199</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>132.23314918823169</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>169.28418912164659</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>213.72161284253193</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>265.37018063083252</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>323.25373314194059</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>385.53666453088965</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>449.68492612278555</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>512.84554288919412</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>572.33608742582908</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>626.07460730571245</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>672.81399856660312</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>712.14602677020048</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>744.33565446078558</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>770.08481831761799</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>790.30826081941234</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>805.9644749648661</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>817.95019365701626</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>827.04765618707972</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>833.90805125002294</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>839.05611801855855</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>842.90502149244151</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>845.77468809904281</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>847.90985600714339</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>849.49609050890535</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>850.673177195118</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>851.54591270155913</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>852.19258582449106</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>852.67153054760581</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>853.02612886133227</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>853.28859748291427</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>853.48283641670616</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>853.6265621792495</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>853.73290009565073</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>853.81156998090751</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>853.86976748487916</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>853.91281836703888</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>853.94466373919113</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>853.9682196918468</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>853.98564368422399</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B969-4A38-BAC4-5F5A447DE2D1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1045149952"/>
-        <c:axId val="1045144544"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1045149952"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1045144544"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1045144544"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="[&gt;0.05]0.0;[=0]\-;\^" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1045149952"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13761,7 +13756,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9570-4B81-803C-FA6B2B30FFB5}"/>
             </c:ext>
@@ -13867,7 +13862,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9570-4B81-803C-FA6B2B30FFB5}"/>
             </c:ext>
@@ -13882,11 +13877,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1042030720"/>
-        <c:axId val="613742480"/>
+        <c:axId val="-880655136"/>
+        <c:axId val="-880641536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1042030720"/>
+        <c:axId val="-880655136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13928,7 +13923,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="613742480"/>
+        <c:crossAx val="-880641536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13936,7 +13931,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="613742480"/>
+        <c:axId val="-880641536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13987,7 +13982,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1042030720"/>
+        <c:crossAx val="-880655136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14001,7 +13996,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14069,7 +14063,7 @@
 </file>
 
 <file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -14083,7 +14077,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14219,7 +14212,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-15E6-4AFB-BFE4-B61071919041}"/>
             </c:ext>
@@ -14415,7 +14408,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-15E6-4AFB-BFE4-B61071919041}"/>
             </c:ext>
@@ -14430,11 +14423,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="613741648"/>
-        <c:axId val="613745392"/>
+        <c:axId val="-880640992"/>
+        <c:axId val="-880654048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="613741648"/>
+        <c:axId val="-880640992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14476,7 +14469,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="613745392"/>
+        <c:crossAx val="-880654048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14484,7 +14477,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="613745392"/>
+        <c:axId val="-880654048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14535,7 +14528,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="613741648"/>
+        <c:crossAx val="-880640992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14549,7 +14542,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14617,7 +14609,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -14766,7 +14758,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D68E-4F57-AC10-9133BF734840}"/>
             </c:ext>
@@ -14962,7 +14954,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D68E-4F57-AC10-9133BF734840}"/>
             </c:ext>
@@ -14977,11 +14969,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="948326304"/>
-        <c:axId val="948321728"/>
+        <c:axId val="-1021382944"/>
+        <c:axId val="-1021396000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="948326304"/>
+        <c:axId val="-1021382944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15023,7 +15015,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="948321728"/>
+        <c:crossAx val="-1021396000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15031,7 +15023,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="948321728"/>
+        <c:axId val="-1021396000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15082,7 +15074,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="948326304"/>
+        <c:crossAx val="-1021382944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15163,7 +15155,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -15300,7 +15292,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8C7B-4C2F-B6F4-6DE470CE43E9}"/>
             </c:ext>
@@ -15484,7 +15476,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8C7B-4C2F-B6F4-6DE470CE43E9}"/>
             </c:ext>
@@ -15499,11 +15491,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="948279296"/>
-        <c:axId val="948297600"/>
+        <c:axId val="-1021390016"/>
+        <c:axId val="-1021407968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="948279296"/>
+        <c:axId val="-1021390016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15545,7 +15537,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="948297600"/>
+        <c:crossAx val="-1021407968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15553,7 +15545,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="948297600"/>
+        <c:axId val="-1021407968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15604,7 +15596,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="948279296"/>
+        <c:crossAx val="-1021390016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15685,7 +15677,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -15842,7 +15834,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6E13-4C23-A96B-1E7878E3E490}"/>
             </c:ext>
@@ -16038,7 +16030,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-6E13-4C23-A96B-1E7878E3E490}"/>
             </c:ext>
@@ -16053,11 +16045,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="986011632"/>
-        <c:axId val="985998320"/>
+        <c:axId val="-1021382400"/>
+        <c:axId val="-1021403616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="986011632"/>
+        <c:axId val="-1021382400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16099,7 +16091,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="985998320"/>
+        <c:crossAx val="-1021403616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16107,7 +16099,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="985998320"/>
+        <c:axId val="-1021403616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16158,7 +16150,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="986011632"/>
+        <c:crossAx val="-1021382400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16239,7 +16231,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -16413,7 +16405,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-42C9-42E5-813D-F28176FC79F7}"/>
             </c:ext>
@@ -16519,7 +16511,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-42C9-42E5-813D-F28176FC79F7}"/>
             </c:ext>
@@ -16534,11 +16526,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="948287200"/>
-        <c:axId val="948275552"/>
+        <c:axId val="-1021388384"/>
+        <c:axId val="-1021406880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="948287200"/>
+        <c:axId val="-1021388384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16580,7 +16572,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="948275552"/>
+        <c:crossAx val="-1021406880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16588,7 +16580,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="948275552"/>
+        <c:axId val="-1021406880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16639,7 +16631,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="948287200"/>
+        <c:crossAx val="-1021388384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16720,7 +16712,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -16869,7 +16861,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-085F-495E-B0B0-322852D8C181}"/>
             </c:ext>
@@ -17065,7 +17057,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-085F-495E-B0B0-322852D8C181}"/>
             </c:ext>
@@ -17080,11 +17072,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="948296768"/>
-        <c:axId val="948275136"/>
+        <c:axId val="-1021380224"/>
+        <c:axId val="-1021387840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="948296768"/>
+        <c:axId val="-1021380224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17126,7 +17118,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="948275136"/>
+        <c:crossAx val="-1021387840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17134,7 +17126,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="948275136"/>
+        <c:axId val="-1021387840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17185,7 +17177,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="948296768"/>
+        <c:crossAx val="-1021380224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17266,7 +17258,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -17415,7 +17407,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-86A3-4BD4-B6FE-439D9D9A37BE}"/>
             </c:ext>
@@ -17521,7 +17513,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-86A3-4BD4-B6FE-439D9D9A37BE}"/>
             </c:ext>
@@ -17536,11 +17528,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="986004560"/>
-        <c:axId val="986006640"/>
+        <c:axId val="-1021394368"/>
+        <c:axId val="-1021405792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="986004560"/>
+        <c:axId val="-1021394368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17582,7 +17574,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="986006640"/>
+        <c:crossAx val="-1021405792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17590,7 +17582,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="986006640"/>
+        <c:axId val="-1021405792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17641,7 +17633,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="986004560"/>
+        <c:crossAx val="-1021394368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -35533,7 +35525,7 @@
         <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35569,7 +35561,7 @@
         <xdr:cNvPr id="6" name="Диаграмма 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35605,7 +35597,7 @@
         <xdr:cNvPr id="10" name="Диаграмма 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35641,7 +35633,7 @@
         <xdr:cNvPr id="12" name="Диаграмма 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35677,7 +35669,7 @@
         <xdr:cNvPr id="14" name="Диаграмма 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35713,7 +35705,7 @@
         <xdr:cNvPr id="17" name="Диаграмма 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35751,7 +35743,7 @@
         <xdr:cNvPr id="18" name="Диаграмма 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35787,7 +35779,7 @@
         <xdr:cNvPr id="20" name="Диаграмма 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35823,7 +35815,7 @@
         <xdr:cNvPr id="21" name="Диаграмма 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35859,7 +35851,7 @@
         <xdr:cNvPr id="22" name="Диаграмма 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35895,7 +35887,7 @@
         <xdr:cNvPr id="25" name="Диаграмма 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35931,7 +35923,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35967,7 +35959,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -36003,7 +35995,7 @@
         <xdr:cNvPr id="7" name="Диаграмма 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -36039,7 +36031,7 @@
         <xdr:cNvPr id="24" name="Диаграмма 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -36077,7 +36069,7 @@
         <xdr:cNvPr id="8" name="Диаграмма 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -36118,7 +36110,7 @@
         <xdr:cNvPr id="18" name="Диаграмма 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -36154,7 +36146,7 @@
         <xdr:cNvPr id="20" name="Диаграмма 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -36192,7 +36184,7 @@
         <xdr:cNvPr id="22" name="Диаграмма 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -36228,7 +36220,7 @@
         <xdr:cNvPr id="24" name="Диаграмма 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -36266,7 +36258,7 @@
         <xdr:cNvPr id="25" name="Диаграмма 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -36302,7 +36294,7 @@
         <xdr:cNvPr id="26" name="Диаграмма 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -36338,7 +36330,7 @@
         <xdr:cNvPr id="27" name="Диаграмма 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -36374,7 +36366,7 @@
         <xdr:cNvPr id="28" name="Диаграмма 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -36410,7 +36402,7 @@
         <xdr:cNvPr id="29" name="Диаграмма 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -36446,7 +36438,7 @@
         <xdr:cNvPr id="30" name="Диаграмма 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -36482,7 +36474,7 @@
         <xdr:cNvPr id="31" name="Диаграмма 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -36518,7 +36510,7 @@
         <xdr:cNvPr id="33" name="Диаграмма 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -36556,7 +36548,7 @@
         <xdr:cNvPr id="34" name="Диаграмма 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -36592,7 +36584,7 @@
         <xdr:cNvPr id="35" name="Диаграмма 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -36628,7 +36620,7 @@
         <xdr:cNvPr id="36" name="Диаграмма 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -36664,7 +36656,7 @@
         <xdr:cNvPr id="38" name="Диаграмма 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -36953,9 +36945,9 @@
   <dimension ref="A1:BL170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AK1" sqref="AK1"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37543,11 +37535,11 @@
         <v>512.62446160819889</v>
       </c>
       <c r="L5">
-        <f t="shared" ref="L5:AH5" si="26">$A5*$C5+($B5-$A5)*K7-($B5/$C5)*(K7^2)</f>
+        <f>$A5*$C5+($B5-$A5)*K7-($B5/$C5)*(K7^2)</f>
         <v>555.37271660315253</v>
       </c>
       <c r="M5">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="L5:AH5" si="26">$A5*$C5+($B5-$A5)*L7-($B5/$C5)*(L7^2)</f>
         <v>608.84822026173038</v>
       </c>
       <c r="N5">
@@ -45625,8 +45617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46195,7 +46187,7 @@
         <v>1141.7275098419072</v>
       </c>
       <c r="M5">
-        <f t="shared" si="0"/>
+        <f>$A5*$C5+($B5-$A5)*L7-($B5/$C5)*(L7^2)</f>
         <v>1238.9578144402085</v>
       </c>
       <c r="N5">
